--- a/Statistics/200m Bryst_statistics.xlsx
+++ b/Statistics/200m Bryst_statistics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_25m" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Male_50m" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_25m" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Female_50m" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G167"/>
+  <dimension ref="A1:G168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4326,25 +4326,25 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Emily Liv Liem</t>
+          <t>Bjarne Forfot</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>3.53,04</t>
+          <t>3.27,19</t>
         </is>
       </c>
       <c r="C112" t="n">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>20.01.2019</t>
+          <t>04.12.2016</t>
         </is>
       </c>
       <c r="E112" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F112" t="inlineStr">
@@ -4361,12 +4361,12 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kaan Baltaci</t>
+          <t>Emily Liv Liem</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>3.28,09</t>
+          <t>3.53,04</t>
         </is>
       </c>
       <c r="C113" t="n">
@@ -4374,7 +4374,7 @@
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>01.10.2022</t>
+          <t>20.01.2019</t>
         </is>
       </c>
       <c r="E113" t="inlineStr">
@@ -4396,25 +4396,25 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Ailin Østerås</t>
+          <t>Kaan Baltaci</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>3.53,35</t>
+          <t>3.28,09</t>
         </is>
       </c>
       <c r="C114" t="n">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>12.03.2011</t>
+          <t>01.10.2022</t>
         </is>
       </c>
       <c r="E114" t="inlineStr">
         <is>
-          <t>Molde</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F114" t="inlineStr">
@@ -4431,12 +4431,12 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Pedro Manquehual</t>
+          <t>Ailin Østerås</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>3.28,33</t>
+          <t>3.53,35</t>
         </is>
       </c>
       <c r="C115" t="n">
@@ -4444,12 +4444,12 @@
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>12.03.2011</t>
         </is>
       </c>
       <c r="E115" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Molde</t>
         </is>
       </c>
       <c r="F115" t="inlineStr">
@@ -4466,25 +4466,25 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Eilert Juul Wolfgang</t>
+          <t>Pedro Manquehual</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>3.29,20</t>
+          <t>3.28,33</t>
         </is>
       </c>
       <c r="C116" t="n">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E116" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F116" t="inlineStr">
@@ -4501,20 +4501,20 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Storm Olander Øvergård</t>
+          <t>Eilert Juul Wolfgang</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>3.30,04</t>
+          <t>3.29,20</t>
         </is>
       </c>
       <c r="C117" t="n">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E117" t="inlineStr">
@@ -4536,25 +4536,25 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Eirik Ingeberg Garshol</t>
+          <t>Storm Olander Øvergård</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>3.31,10</t>
+          <t>3.30,04</t>
         </is>
       </c>
       <c r="C118" t="n">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E118" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F118" t="inlineStr">
@@ -4571,25 +4571,25 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Magnus Bakkejord</t>
+          <t>Eirik Ingeberg Garshol</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>3.34,14</t>
+          <t>3.31,10</t>
         </is>
       </c>
       <c r="C119" t="n">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>30.10.2010</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E119" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F119" t="inlineStr">
@@ -4606,20 +4606,20 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Conrad Sippala Hassel</t>
+          <t>Magnus Bakkejord</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>3.34,84</t>
+          <t>3.34,14</t>
         </is>
       </c>
       <c r="C120" t="n">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>30.10.2010</t>
         </is>
       </c>
       <c r="E120" t="inlineStr">
@@ -4641,25 +4641,25 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Isabel Ødegård Pedersen</t>
+          <t>Conrad Sippala Hassel</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>4.02,00</t>
+          <t>3.34,84</t>
         </is>
       </c>
       <c r="C121" t="n">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E121" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F121" t="inlineStr">
@@ -4676,25 +4676,25 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Marcus Thalberg Fagerheim</t>
+          <t>Isabel Ødegård Pedersen</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>3.36,59</t>
+          <t>4.02,00</t>
         </is>
       </c>
       <c r="C122" t="n">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>28.04.2012</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E122" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F122" t="inlineStr">
@@ -4711,25 +4711,25 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Brage Gylseth Dahl</t>
+          <t>Marcus Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>3.37,93</t>
+          <t>3.36,59</t>
         </is>
       </c>
       <c r="C123" t="n">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>28.04.2012</t>
         </is>
       </c>
       <c r="E123" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F123" t="inlineStr">
@@ -4746,12 +4746,12 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>Tymofii Dzisiak</t>
+          <t>Brage Gylseth Dahl</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>3.37,97</t>
+          <t>3.37,93</t>
         </is>
       </c>
       <c r="C124" t="n">
@@ -4781,25 +4781,25 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Even Greiff</t>
+          <t>Tymofii Dzisiak</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>3.38,69</t>
+          <t>3.37,97</t>
         </is>
       </c>
       <c r="C125" t="n">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E125" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F125" t="inlineStr">
@@ -4816,20 +4816,20 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>William Wale</t>
+          <t>Even Greiff</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>3.39,41</t>
+          <t>3.38,69</t>
         </is>
       </c>
       <c r="C126" t="n">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>04.10.2014</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E126" t="inlineStr">
@@ -4851,12 +4851,12 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Tony Christopher Moflag</t>
+          <t>William Wale</t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>3.39,29</t>
+          <t>3.39,41</t>
         </is>
       </c>
       <c r="C127" t="n">
@@ -4864,7 +4864,7 @@
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>08.10.2005</t>
+          <t>04.10.2014</t>
         </is>
       </c>
       <c r="E127" t="inlineStr">
@@ -4886,25 +4886,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Daniel Stanislaw Czuba</t>
+          <t>Tony Christopher Moflag</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3.40,74</t>
+          <t>3.39,29</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>08.10.2005</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -4921,25 +4921,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Fredrik Holberg</t>
+          <t>Daniel Stanislaw Czuba</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3.41,61</t>
+          <t>3.40,74</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -4956,12 +4956,12 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Lyder Ringsvold Hogstad</t>
+          <t>Fredrik Holberg</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.41,58</t>
+          <t>3.41,61</t>
         </is>
       </c>
       <c r="C130" t="n">
@@ -4969,12 +4969,12 @@
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>20.01.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F130" t="inlineStr">
@@ -4991,20 +4991,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Christopher Janjua</t>
+          <t>Lyder Ringsvold Hogstad</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3.42,22</t>
+          <t>3.41,58</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>19.03.2006</t>
+          <t>20.01.2019</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -5026,25 +5026,25 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Olav Høyland Hofstad</t>
+          <t>Christopher Janjua</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3.42,27</t>
+          <t>3.42,22</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F132" t="inlineStr">
@@ -5061,25 +5061,25 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Thomas Paulsen</t>
+          <t>Olav Høyland Hofstad</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.45,59</t>
+          <t>3.42,27</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>151</v>
+        <v>157</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>04.10.2014</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F133" t="inlineStr">
@@ -5096,25 +5096,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Gunhild Furuholt Valle</t>
+          <t>Thomas Paulsen</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>4.12,82</t>
+          <t>3.45,59</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>04.10.2014</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -5131,25 +5131,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Einar Risholt Moen</t>
+          <t>Gunhild Furuholt Valle</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3.47,08</t>
+          <t>4.12,82</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15.06.2013</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -5166,25 +5166,25 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Bernard Smuk</t>
+          <t>Einar Risholt Moen</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3.47,66</t>
+          <t>3.47,08</t>
         </is>
       </c>
       <c r="C136" t="n">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>15.06.2013</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F136" t="inlineStr">
@@ -5201,25 +5201,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Robin von Bargen</t>
+          <t>Bernard Smuk</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3.48,44</t>
+          <t>3.47,66</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>06.12.2008</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -5236,12 +5236,12 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Ingjerd Jepsen Vegge</t>
+          <t>Robin von Bargen</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4.15,91</t>
+          <t>3.48,44</t>
         </is>
       </c>
       <c r="C138" t="n">
@@ -5249,12 +5249,12 @@
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>12.02.2011</t>
+          <t>06.12.2008</t>
         </is>
       </c>
       <c r="E138" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F138" t="inlineStr">
@@ -5271,20 +5271,20 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Erik Solbakken Andersen</t>
+          <t>Ingjerd Jepsen Vegge</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>3.52,15</t>
+          <t>4.15,91</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>12.02.2011</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
@@ -5306,25 +5306,25 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Rasmus Larsen Natvig</t>
+          <t>Erik Solbakken Andersen</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>3.52,83</t>
+          <t>3.52,15</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F140" t="inlineStr">
@@ -5341,25 +5341,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Jakob M. Tjøstheim</t>
+          <t>Rasmus Larsen Natvig</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>3.55,56</t>
+          <t>3.52,83</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>132</v>
+        <v>137</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -5376,25 +5376,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>William Johannes Kirkelund Kristiansen</t>
+          <t>Jakob M. Tjøstheim</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>3.57,43</t>
+          <t>3.55,56</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>22.10.2022</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -5411,25 +5411,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Voormolen Gutierrez Victor</t>
+          <t>William Johannes Kirkelund Kristiansen</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>3.58,96</t>
+          <t>3.57,43</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>22.10.2022</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -5446,12 +5446,12 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Peder Lund Juul</t>
+          <t>Voormolen Gutierrez Victor</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>3.58,71</t>
+          <t>3.58,96</t>
         </is>
       </c>
       <c r="C144" t="n">
@@ -5459,12 +5459,12 @@
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>06.04.2024</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -5481,25 +5481,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Jesper Julius Sundseth Skjærli</t>
+          <t>Peder Lund Juul</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>3.59,09</t>
+          <t>3.58,71</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>06.04.2024</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -5516,25 +5516,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Angelico Mikkel Andersen</t>
+          <t>Jesper Julius Sundseth Skjærli</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4.00,41</t>
+          <t>3.59,09</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -5551,12 +5551,12 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Cornelius Wik</t>
+          <t>Angelico Mikkel Andersen</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4.00,87</t>
+          <t>4.00,41</t>
         </is>
       </c>
       <c r="C147" t="n">
@@ -5564,7 +5564,7 @@
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>28.01.2024</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -5586,20 +5586,20 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Idun Skjærseth</t>
+          <t>Cornelius Wik</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4.30,74</t>
+          <t>4.00,87</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>28.01.2024</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
@@ -5621,20 +5621,20 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Anton Hoel</t>
+          <t>Idun Skjærseth</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4.04,07</t>
+          <t>4.30,74</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
@@ -5656,20 +5656,20 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Vår Kristine Sollien Skar</t>
+          <t>Anton Hoel</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>4.34,19</t>
+          <t>4.04,07</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>03.11.2012</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
@@ -5691,12 +5691,12 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Leo Alexander Farias Kristiansen</t>
+          <t>Vår Kristine Sollien Skar</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>4.04,97</t>
+          <t>4.34,19</t>
         </is>
       </c>
       <c r="C151" t="n">
@@ -5704,7 +5704,7 @@
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>02.10.2021</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -5726,20 +5726,20 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Ingvar Høgås Wik</t>
+          <t>Leo Alexander Farias Kristiansen</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4.07,53</t>
+          <t>4.04,97</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>09.02.2013</t>
+          <t>02.10.2021</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
@@ -5761,25 +5761,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Magnus Hestvik Larsen</t>
+          <t>Ingvar Høgås Wik</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>4.08,99</t>
+          <t>4.07,53</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>28.02.2009</t>
+          <t>09.02.2013</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -5796,25 +5796,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sondre Thorgaard</t>
+          <t>Magnus Hestvik Larsen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>4.09,92</t>
+          <t>4.08,99</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>28.02.2009</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -5831,20 +5831,20 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Robert Andre Skarø</t>
+          <t>Sondre Thorgaard</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>4.10,22</t>
+          <t>4.09,92</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>16.06.2018</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
@@ -5866,12 +5866,12 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Nikan Ommani</t>
+          <t>Robert Andre Skarø</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>4.10,73</t>
+          <t>4.10,22</t>
         </is>
       </c>
       <c r="C156" t="n">
@@ -5879,7 +5879,7 @@
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>19.01.2025</t>
+          <t>16.06.2018</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
@@ -5901,20 +5901,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Sigurd Kristoffersen Torvik</t>
+          <t>Nikan Ommani</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>4.11,63</t>
+          <t>4.10,73</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>19.01.2025</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -5936,20 +5936,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Brage Kaminka Heiberg</t>
+          <t>Sigurd Kristoffersen Torvik</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>4.12,38</t>
+          <t>4.11,63</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>16.09.2023</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -5971,20 +5971,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Morten Johansen</t>
+          <t>Brage Kaminka Heiberg</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4.14,03</t>
+          <t>4.12,38</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>14.01.2006</t>
+          <t>16.09.2023</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -6006,12 +6006,12 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Jesper Øvermo Johansen</t>
+          <t>Morten Johansen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4.14,21</t>
+          <t>4.14,03</t>
         </is>
       </c>
       <c r="C160" t="n">
@@ -6019,12 +6019,12 @@
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>25.10.2020</t>
+          <t>14.01.2006</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -6041,25 +6041,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Ingeborg Vold Kirkvold</t>
+          <t>Jesper Øvermo Johansen</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4.48,98</t>
+          <t>4.14,21</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>25.10.2020</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -6076,25 +6076,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Hauk Vold Kirkvold</t>
+          <t>Ingeborg Vold Kirkvold</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>4.29,40</t>
+          <t>4.48,98</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -6111,25 +6111,25 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Casper Dahle-Øfsti</t>
+          <t>Hauk Vold Kirkvold</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>4.37,59</t>
+          <t>4.29,40</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>20.10.2013</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Namsos</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
@@ -6146,25 +6146,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Hans Otto Søyseth</t>
+          <t>Casper Dahle-Øfsti</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4.45,24</t>
+          <t>4.37,59</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>29.11.2014</t>
+          <t>20.10.2013</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Namsos</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -6181,25 +6181,25 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Gajithsing Ajeethsing</t>
+          <t>Hans Otto Søyseth</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>5.13,32</t>
+          <t>4.45,24</t>
         </is>
       </c>
       <c r="C165" t="n">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>19.06.2021</t>
+          <t>29.11.2014</t>
         </is>
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
@@ -6216,20 +6216,20 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Theodor Hoff</t>
+          <t>Gajithsing Ajeethsing</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>5.17,69</t>
+          <t>5.13,32</t>
         </is>
       </c>
       <c r="C166" t="n">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>03.11.2012</t>
+          <t>19.06.2021</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
@@ -6251,33 +6251,68 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
+          <t>Theodor Hoff</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>5.17,69</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>54</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>03.11.2012</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>Trondheim</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G167" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
           <t>Riccardo Manum</t>
         </is>
       </c>
-      <c r="B167" t="inlineStr">
+      <c r="B168" t="inlineStr">
         <is>
           <t>5.40,11</t>
         </is>
       </c>
-      <c r="C167" t="n">
+      <c r="C168" t="n">
         <v>44</v>
       </c>
-      <c r="D167" t="inlineStr">
+      <c r="D168" t="inlineStr">
         <is>
           <t>19.01.2025</t>
         </is>
       </c>
-      <c r="E167" t="inlineStr">
+      <c r="E168" t="inlineStr">
         <is>
           <t>Trondheim</t>
         </is>
       </c>
-      <c r="F167" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G167" t="inlineStr">
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>25m</t>
+        </is>
+      </c>
+      <c r="G168" t="inlineStr">
         <is>
           <t>Male</t>
         </is>
@@ -8485,7 +8520,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G165"/>
+  <dimension ref="A1:G164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12943,25 +12978,25 @@
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Bjarne Forfot</t>
+          <t>Chloe Branlat</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>3.27,19</t>
+          <t>3.52,74</t>
         </is>
       </c>
       <c r="C128" t="n">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>04.12.2016</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E128" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F128" t="inlineStr">
@@ -12978,25 +13013,25 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Chloe Branlat</t>
+          <t>Elise Øystrøm Tyvold</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>3.52,74</t>
+          <t>3.53,50</t>
         </is>
       </c>
       <c r="C129" t="n">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E129" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F129" t="inlineStr">
@@ -13013,20 +13048,20 @@
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Elise Øystrøm Tyvold</t>
+          <t>Cathrine Hegle</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>3.53,50</t>
+          <t>3.54,07</t>
         </is>
       </c>
       <c r="C130" t="n">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>12.02.2011</t>
         </is>
       </c>
       <c r="E130" t="inlineStr">
@@ -13048,20 +13083,20 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Cathrine Hegle</t>
+          <t>Synnøve Fevang</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>3.54,07</t>
+          <t>3.54,79</t>
         </is>
       </c>
       <c r="C131" t="n">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>12.02.2011</t>
+          <t>19.03.2006</t>
         </is>
       </c>
       <c r="E131" t="inlineStr">
@@ -13083,20 +13118,20 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Synnøve Fevang</t>
+          <t>Ramona Vutudal</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>3.54,79</t>
+          <t>3.55,69</t>
         </is>
       </c>
       <c r="C132" t="n">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>19.03.2006</t>
+          <t>24.01.2009</t>
         </is>
       </c>
       <c r="E132" t="inlineStr">
@@ -13118,20 +13153,20 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Ramona Vutudal</t>
+          <t>Luma Nicole Farias Kristiansen</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>3.55,69</t>
+          <t>3.57,53</t>
         </is>
       </c>
       <c r="C133" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>24.01.2009</t>
+          <t>17.11.2019</t>
         </is>
       </c>
       <c r="E133" t="inlineStr">
@@ -13153,25 +13188,25 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Luma Nicole Farias Kristiansen</t>
+          <t>Louise Thys</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>3.57,53</t>
+          <t>3.57,94</t>
         </is>
       </c>
       <c r="C134" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>17.11.2019</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
@@ -13188,25 +13223,25 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Louise Thys</t>
+          <t>Phoebe Thalberg Fagerheim</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>3.57,94</t>
+          <t>3.59,64</t>
         </is>
       </c>
       <c r="C135" t="n">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>13.01.2013</t>
         </is>
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
@@ -13223,12 +13258,12 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Phoebe Thalberg Fagerheim</t>
+          <t>Helle Lundgren</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>3.59,64</t>
+          <t>3.59,58</t>
         </is>
       </c>
       <c r="C136" t="n">
@@ -13236,7 +13271,7 @@
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>13.01.2013</t>
+          <t>15.01.2023</t>
         </is>
       </c>
       <c r="E136" t="inlineStr">
@@ -13258,25 +13293,25 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Helle Lundgren</t>
+          <t>Kaia Winnberg</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>3.59,58</t>
+          <t>4.00,10</t>
         </is>
       </c>
       <c r="C137" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>15.01.2023</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E137" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F137" t="inlineStr">
@@ -13293,16 +13328,16 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Kaia Winnberg</t>
+          <t>Ina Birgitte Eidsmo Hova</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>4.00,10</t>
+          <t>4.00,26</t>
         </is>
       </c>
       <c r="C138" t="n">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -13328,25 +13363,25 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Ina Birgitte Eidsmo Hova</t>
+          <t>Elina Arefjord Spangelo</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>4.00,26</t>
+          <t>4.01,07</t>
         </is>
       </c>
       <c r="C139" t="n">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E139" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F139" t="inlineStr">
@@ -13363,20 +13398,20 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Elina Arefjord Spangelo</t>
+          <t>Kristina Bragadottir</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>4.01,07</t>
+          <t>4.02,46</t>
         </is>
       </c>
       <c r="C140" t="n">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>16.06.2012</t>
         </is>
       </c>
       <c r="E140" t="inlineStr">
@@ -13398,25 +13433,25 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Kristina Bragadottir</t>
+          <t>Ida Fiskaa Barstad</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>4.02,46</t>
+          <t>4.03,14</t>
         </is>
       </c>
       <c r="C141" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>16.06.2012</t>
+          <t>30.11.2019</t>
         </is>
       </c>
       <c r="E141" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Levanger</t>
         </is>
       </c>
       <c r="F141" t="inlineStr">
@@ -13433,25 +13468,25 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Ida Fiskaa Barstad</t>
+          <t>Ingrid Skye Naustvoll</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>4.03,14</t>
+          <t>4.05,17</t>
         </is>
       </c>
       <c r="C142" t="n">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>30.11.2019</t>
+          <t>21.06.2014</t>
         </is>
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Levanger</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
@@ -13468,25 +13503,25 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ingrid Skye Naustvoll</t>
+          <t>Tora Tveiten</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>4.05,17</t>
+          <t>4.08,10</t>
         </is>
       </c>
       <c r="C143" t="n">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>21.06.2014</t>
+          <t>25.10.2014</t>
         </is>
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kristiansund</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
@@ -13503,25 +13538,25 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Tora Tveiten</t>
+          <t>Julia Beatrice Ferreira Kristiansen</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>4.08,10</t>
+          <t>4.08,51</t>
         </is>
       </c>
       <c r="C144" t="n">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>25.10.2014</t>
+          <t>04.12.2016</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>Kristiansund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
@@ -13538,25 +13573,25 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Julia Beatrice Ferreira Kristiansen</t>
+          <t>Emilie Sandvik Gangåssæter</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>4.08,51</t>
+          <t>4.09,43</t>
         </is>
       </c>
       <c r="C145" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>04.12.2016</t>
+          <t>19.10.2019</t>
         </is>
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Verdal</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
@@ -13573,25 +13608,25 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Emilie Sandvik Gangåssæter</t>
+          <t>Ella Katrine Lind Bøckman</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>4.09,43</t>
+          <t>4.11,95</t>
         </is>
       </c>
       <c r="C146" t="n">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>19.10.2019</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Verdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
@@ -13608,20 +13643,20 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>Ella Katrine Lind Bøckman</t>
+          <t>Camilla Gervasoni</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>4.11,95</t>
+          <t>4.16,77</t>
         </is>
       </c>
       <c r="C147" t="n">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>16.09.2012</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
@@ -13643,25 +13678,25 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Camilla Gervasoni</t>
+          <t>Sigrid Gylseth Dahl</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>4.16,77</t>
+          <t>4.17,97</t>
         </is>
       </c>
       <c r="C148" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t>16.09.2012</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
@@ -13678,25 +13713,25 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Sigrid Gylseth Dahl</t>
+          <t>Marie Wærnes Blom</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>4.17,97</t>
+          <t>4.19,03</t>
         </is>
       </c>
       <c r="C149" t="n">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>15.03.2025</t>
         </is>
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Ålesund</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
@@ -13713,25 +13748,25 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Marie Wærnes Blom</t>
+          <t>Connie Rakel Lånke</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>4.19,03</t>
+          <t>4.20,29</t>
         </is>
       </c>
       <c r="C150" t="n">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>15.03.2025</t>
+          <t>05.04.2014</t>
         </is>
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Ålesund</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
@@ -13748,20 +13783,20 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Connie Rakel Lånke</t>
+          <t>Sara Olea  Riseth Moe</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>4.20,29</t>
+          <t>4.20,86</t>
         </is>
       </c>
       <c r="C151" t="n">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>05.04.2014</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E151" t="inlineStr">
@@ -13783,25 +13818,25 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Sara Olea  Riseth Moe</t>
+          <t>Aurora Dahl Bere</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>4.20,86</t>
+          <t>4.22,35</t>
         </is>
       </c>
       <c r="C152" t="n">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>08.06.2024</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
@@ -13818,25 +13853,25 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Aurora Dahl Bere</t>
+          <t>Hedda Gätzschmann</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>4.22,35</t>
+          <t>4.25,77</t>
         </is>
       </c>
       <c r="C153" t="n">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>08.06.2024</t>
+          <t>16.02.2025</t>
         </is>
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Kolvereid</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
@@ -13853,25 +13888,25 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Hedda Gätzschmann</t>
+          <t>Arne Martin Einarsrud Rismoen</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>4.25,77</t>
+          <t>3.58,19</t>
         </is>
       </c>
       <c r="C154" t="n">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>16.02.2025</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Kolvereid</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
@@ -13888,25 +13923,25 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Arne Martin Einarsrud Rismoen</t>
+          <t>Vilma Granhus Følstad</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>3.58,19</t>
+          <t>4.28,78</t>
         </is>
       </c>
       <c r="C155" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>22.02.2025</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
@@ -13923,25 +13958,25 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Vilma Granhus Følstad</t>
+          <t>Lea almaas</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>4.28,78</t>
+          <t>4.30,27</t>
         </is>
       </c>
       <c r="C156" t="n">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>22.02.2025</t>
+          <t>18.06.2011</t>
         </is>
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
@@ -13958,20 +13993,20 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Lea almaas</t>
+          <t>Klara Marie Gildemyn Strabac</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>4.30,27</t>
+          <t>4.31,10</t>
         </is>
       </c>
       <c r="C157" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>18.06.2011</t>
+          <t>20.09.2020</t>
         </is>
       </c>
       <c r="E157" t="inlineStr">
@@ -13993,20 +14028,20 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Klara Marie Gildemyn Strabac</t>
+          <t>Sanna Beckstrøm</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>4.31,10</t>
+          <t>4.32,36</t>
         </is>
       </c>
       <c r="C158" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>20.09.2020</t>
+          <t>21.05.2005</t>
         </is>
       </c>
       <c r="E158" t="inlineStr">
@@ -14028,20 +14063,20 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Sanna Beckstrøm</t>
+          <t>Sunniva Eldholm</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>4.32,36</t>
+          <t>4.33,39</t>
         </is>
       </c>
       <c r="C159" t="n">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>21.05.2005</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
@@ -14063,25 +14098,25 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Sunniva Eldholm</t>
+          <t>Live Hamnes Ulriksen</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>4.33,39</t>
+          <t>4.36,16</t>
         </is>
       </c>
       <c r="C160" t="n">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>01.12.2024</t>
         </is>
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
@@ -14098,25 +14133,25 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Live Hamnes Ulriksen</t>
+          <t>Ronja Emilia Wikström</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>4.36,16</t>
+          <t>4.45,91</t>
         </is>
       </c>
       <c r="C161" t="n">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>01.12.2024</t>
+          <t>11.02.2023</t>
         </is>
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Stjørdal</t>
+          <t>Hommelvik</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
@@ -14133,25 +14168,25 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Ronja Emilia Wikström</t>
+          <t>Elena Fyhn Leida</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>4.45,91</t>
+          <t>4.53,41</t>
         </is>
       </c>
       <c r="C162" t="n">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>11.02.2023</t>
+          <t>18.04.2021</t>
         </is>
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Hommelvik</t>
+          <t>Trondheim</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
@@ -14168,20 +14203,20 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Elena Fyhn Leida</t>
+          <t>Anna Fenstad Høysæter</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>4.53,41</t>
+          <t>4.54,04</t>
         </is>
       </c>
       <c r="C163" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>18.04.2021</t>
+          <t>19.01.2020</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
@@ -14203,25 +14238,25 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Anna Fenstad Høysæter</t>
+          <t>Snorre Risholt Moen</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>4.54,04</t>
+          <t>4.49,68</t>
         </is>
       </c>
       <c r="C164" t="n">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>19.01.2020</t>
+          <t>20.04.2013</t>
         </is>
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Trondheim</t>
+          <t>Stjørdal</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
@@ -14230,41 +14265,6 @@
         </is>
       </c>
       <c r="G164" t="inlineStr">
-        <is>
-          <t>Female</t>
-        </is>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t>Snorre Risholt Moen</t>
-        </is>
-      </c>
-      <c r="B165" t="inlineStr">
-        <is>
-          <t>4.49,68</t>
-        </is>
-      </c>
-      <c r="C165" t="n">
-        <v>71</v>
-      </c>
-      <c r="D165" t="inlineStr">
-        <is>
-          <t>20.04.2013</t>
-        </is>
-      </c>
-      <c r="E165" t="inlineStr">
-        <is>
-          <t>Stjørdal</t>
-        </is>
-      </c>
-      <c r="F165" t="inlineStr">
-        <is>
-          <t>25m</t>
-        </is>
-      </c>
-      <c r="G165" t="inlineStr">
         <is>
           <t>Female</t>
         </is>
